--- a/[02]_일지 WBS/[1조]푸드쉐어_프로젝트.xlsx
+++ b/[02]_일지 WBS/[1조]푸드쉐어_프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\water\OneDrive\바탕 화면\프로젝트 사다리\문서\[02]_일지 WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC640EA-61AC-45E1-96D9-7AF182578DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F8F38-3276-4F55-9EA3-4A701965B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
   <si>
     <t>Project</t>
   </si>
@@ -438,19 +438,11 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4/15 ~ 4/21  3주차 기능 통합</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1.0.</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>4.2.0.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4/22 ~ 4/28  4주차 기능 통합</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -545,10 +537,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>통합테스트</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 통합테스트</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -590,6 +578,34 @@
   </si>
   <si>
     <t>기본 적인 기능 테스트 및 리뷰</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채팅 리팩토링 기능 개선 및 업그레이드 </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">통합 테스트 진행 및 리팩토링 </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 리팩토링 기능 개선 및 업그레이드</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 화면 리팩토링 기능 개선 및 업그레이드</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입,로그인 리팩토링 기능 개선 및 업그레이드</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/15 ~ 4/21  3주차 기능 통합, 기능 구현 완성도 높이고 프론트 화면 구현 </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/22 ~ 4/28  4주차 기능 통합 : 기능별 통합테스트 하면서 담당 부분 리팩토링 및 기능 개선 + @ (기능 추가) </t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1809,6 +1825,9 @@
     <xf numFmtId="14" fontId="4" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1945,9 +1964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2169,10 +2185,10 @@
   <dimension ref="A1:AL1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="9" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="9" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -2194,12 +2210,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
       <c r="F1" s="3" t="s">
         <v>72</v>
       </c>
@@ -2244,12 +2260,12 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="96" t="s">
         <v>73</v>
       </c>
@@ -2294,12 +2310,12 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="6" t="s">
         <v>74</v>
       </c>
@@ -2344,12 +2360,12 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="8" t="s">
         <v>75</v>
       </c>
@@ -2392,12 +2408,12 @@
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="132">
+      <c r="B5" s="133">
         <v>45371</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="10" t="s">
         <v>76</v>
       </c>
@@ -2437,258 +2453,258 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="163" t="s">
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="162" t="s">
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="162"/>
-      <c r="AB6" s="162"/>
-      <c r="AC6" s="162"/>
-      <c r="AD6" s="162"/>
-      <c r="AE6" s="162"/>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="162"/>
-      <c r="AI6" s="162"/>
-      <c r="AJ6" s="162"/>
-      <c r="AK6" s="162"/>
-      <c r="AL6" s="162"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="163"/>
+      <c r="AL6" s="163"/>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="163" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="164"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="166" t="s">
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="161" t="s">
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161" t="s">
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161" t="s">
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161" t="s">
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="161"/>
-      <c r="AJ7" s="161"/>
-      <c r="AK7" s="161" t="s">
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="AL7" s="161"/>
+      <c r="AL7" s="162"/>
     </row>
     <row r="8" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="137" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="158" t="s">
+      <c r="E8" s="139"/>
+      <c r="F8" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="153" t="s">
+      <c r="H8" s="161"/>
+      <c r="I8" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="154">
+      <c r="J8" s="155">
         <v>20</v>
       </c>
-      <c r="K8" s="134">
+      <c r="K8" s="135">
         <v>21</v>
       </c>
-      <c r="L8" s="134">
+      <c r="L8" s="135">
         <v>22</v>
       </c>
-      <c r="M8" s="123">
+      <c r="M8" s="124">
         <v>25</v>
       </c>
-      <c r="N8" s="123">
+      <c r="N8" s="124">
         <v>26</v>
       </c>
-      <c r="O8" s="123">
+      <c r="O8" s="124">
         <v>27</v>
       </c>
-      <c r="P8" s="123">
+      <c r="P8" s="124">
         <v>28</v>
       </c>
-      <c r="Q8" s="123">
+      <c r="Q8" s="124">
         <v>29</v>
       </c>
-      <c r="R8" s="121">
+      <c r="R8" s="122">
         <v>1</v>
       </c>
-      <c r="S8" s="121">
+      <c r="S8" s="122">
         <v>2</v>
       </c>
-      <c r="T8" s="121">
+      <c r="T8" s="122">
         <v>3</v>
       </c>
-      <c r="U8" s="121">
+      <c r="U8" s="122">
         <v>4</v>
       </c>
-      <c r="V8" s="121">
+      <c r="V8" s="122">
         <v>5</v>
       </c>
-      <c r="W8" s="121">
+      <c r="W8" s="122">
         <v>8</v>
       </c>
-      <c r="X8" s="121">
+      <c r="X8" s="122">
         <v>9</v>
       </c>
-      <c r="Y8" s="121">
+      <c r="Y8" s="122">
         <v>11</v>
       </c>
-      <c r="Z8" s="121">
+      <c r="Z8" s="122">
         <v>12</v>
       </c>
-      <c r="AA8" s="121">
+      <c r="AA8" s="122">
         <v>15</v>
       </c>
-      <c r="AB8" s="121">
+      <c r="AB8" s="122">
         <v>16</v>
       </c>
-      <c r="AC8" s="121">
+      <c r="AC8" s="122">
         <v>17</v>
       </c>
-      <c r="AD8" s="121">
+      <c r="AD8" s="122">
         <v>18</v>
       </c>
-      <c r="AE8" s="121">
+      <c r="AE8" s="122">
         <v>19</v>
       </c>
-      <c r="AF8" s="121">
+      <c r="AF8" s="122">
         <v>22</v>
       </c>
-      <c r="AG8" s="121">
+      <c r="AG8" s="122">
         <v>23</v>
       </c>
-      <c r="AH8" s="121">
+      <c r="AH8" s="122">
         <v>24</v>
       </c>
-      <c r="AI8" s="121">
+      <c r="AI8" s="122">
         <v>25</v>
       </c>
-      <c r="AJ8" s="121">
+      <c r="AJ8" s="122">
         <v>26</v>
       </c>
-      <c r="AK8" s="121">
+      <c r="AK8" s="122">
         <v>29</v>
       </c>
-      <c r="AL8" s="121">
+      <c r="AL8" s="122">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="122"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="123"/>
       <c r="G9" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="122"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="122"/>
-      <c r="AL9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="123"/>
+      <c r="AJ9" s="123"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="123"/>
     </row>
     <row r="10" spans="1:38" ht="16.5" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -2737,15 +2753,15 @@
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="142"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -2885,15 +2901,15 @@
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="142"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -2937,10 +2953,10 @@
       <c r="F15" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="157" t="s">
+      <c r="G15" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="142"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="24" t="s">
         <v>79</v>
       </c>
@@ -3021,15 +3037,15 @@
       <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="142"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -3325,15 +3341,15 @@
       <c r="B23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="142"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -3571,17 +3587,17 @@
       <c r="AL27" s="68"/>
     </row>
     <row r="28" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="142"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="143"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
@@ -3617,15 +3633,15 @@
       <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="142"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="143"/>
       <c r="J29" s="108"/>
       <c r="K29" s="108"/>
       <c r="L29" s="108"/>
@@ -3915,15 +3931,15 @@
       <c r="B35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="152" t="s">
-        <v>146</v>
+      <c r="C35" s="153" t="s">
+        <v>143</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="142"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="143"/>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
@@ -3962,7 +3978,7 @@
         <v>42</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>72</v>
@@ -3974,7 +3990,7 @@
         <v>45394</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -4014,7 +4030,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F37" s="96" t="s">
         <v>73</v>
@@ -4026,7 +4042,7 @@
         <v>45394</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
@@ -4066,7 +4082,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>74</v>
@@ -4078,7 +4094,7 @@
         <v>45394</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
@@ -4118,7 +4134,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>75</v>
@@ -4130,7 +4146,7 @@
         <v>45394</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
@@ -4170,7 +4186,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>4</v>
@@ -4182,7 +4198,7 @@
         <v>45394</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -4219,15 +4235,15 @@
       <c r="B41" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="143" t="s">
-        <v>113</v>
+      <c r="C41" s="144" t="s">
+        <v>154</v>
       </c>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="146"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -4259,14 +4275,14 @@
       <c r="AL41" s="70"/>
     </row>
     <row r="42" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A42" s="167"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="41"/>
       <c r="C42" s="55"/>
       <c r="D42" s="58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>72</v>
@@ -4278,7 +4294,7 @@
         <v>45401</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
@@ -4311,14 +4327,14 @@
       <c r="AL42" s="68"/>
     </row>
     <row r="43" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A43" s="167"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="31"/>
       <c r="C43" s="54"/>
       <c r="D43" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F43" s="96" t="s">
         <v>73</v>
@@ -4330,7 +4346,7 @@
         <v>45401</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J43" s="42"/>
       <c r="K43" s="42"/>
@@ -4363,14 +4379,14 @@
       <c r="AL43" s="68"/>
     </row>
     <row r="44" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A44" s="167"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="38"/>
       <c r="C44" s="56"/>
       <c r="D44" s="58" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>74</v>
@@ -4382,7 +4398,7 @@
         <v>45401</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="42"/>
@@ -4415,14 +4431,14 @@
       <c r="AL44" s="68"/>
     </row>
     <row r="45" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A45" s="167"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="38"/>
       <c r="C45" s="56"/>
       <c r="D45" s="58" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>75</v>
@@ -4434,7 +4450,7 @@
         <v>45401</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J45" s="42"/>
       <c r="K45" s="42"/>
@@ -4467,14 +4483,14 @@
       <c r="AL45" s="68"/>
     </row>
     <row r="46" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A46" s="167"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="38"/>
       <c r="C46" s="54"/>
       <c r="D46" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>4</v>
@@ -4486,7 +4502,7 @@
         <v>45401</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
@@ -4510,8 +4526,8 @@
       <c r="AC46" s="106"/>
       <c r="AD46" s="106"/>
       <c r="AE46" s="118"/>
-      <c r="AF46" s="103"/>
-      <c r="AG46" s="103"/>
+      <c r="AF46" s="118"/>
+      <c r="AG46" s="118"/>
       <c r="AH46" s="71"/>
       <c r="AI46" s="71"/>
       <c r="AJ46" s="71"/>
@@ -4519,13 +4535,13 @@
       <c r="AL46" s="71"/>
     </row>
     <row r="47" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A47" s="141" t="s">
+      <c r="A47" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="142"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="143"/>
       <c r="F47" s="34"/>
       <c r="G47" s="79"/>
       <c r="H47" s="91"/>
@@ -4563,17 +4579,17 @@
     <row r="48" spans="1:38" ht="16.5" customHeight="1">
       <c r="A48" s="44"/>
       <c r="B48" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
-      <c r="C48" s="146" t="s">
-        <v>116</v>
+      <c r="C48" s="147" t="s">
+        <v>155</v>
       </c>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="140"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="141"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
       <c r="L48" s="42"/>
@@ -4605,14 +4621,14 @@
       <c r="AL48" s="68"/>
     </row>
     <row r="49" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A49" s="99"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="41"/>
       <c r="C49" s="54"/>
       <c r="D49" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>72</v>
@@ -4621,7 +4637,9 @@
         <v>45404</v>
       </c>
       <c r="H49" s="89"/>
-      <c r="I49" s="46"/>
+      <c r="I49" s="46" t="s">
+        <v>149</v>
+      </c>
       <c r="J49" s="42"/>
       <c r="K49" s="42"/>
       <c r="L49" s="42"/>
@@ -4644,23 +4662,23 @@
       <c r="AC49" s="68"/>
       <c r="AD49" s="68"/>
       <c r="AE49" s="68"/>
-      <c r="AF49" s="103"/>
-      <c r="AG49" s="103"/>
-      <c r="AH49" s="103"/>
+      <c r="AF49" s="118"/>
+      <c r="AG49" s="118"/>
+      <c r="AH49" s="118"/>
       <c r="AI49" s="106"/>
       <c r="AJ49" s="106"/>
       <c r="AK49" s="68"/>
       <c r="AL49" s="68"/>
     </row>
     <row r="50" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A50" s="99"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="31"/>
       <c r="C50" s="54"/>
       <c r="D50" s="51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F50" s="96" t="s">
         <v>73</v>
@@ -4669,7 +4687,9 @@
         <v>45404</v>
       </c>
       <c r="H50" s="89"/>
-      <c r="I50" s="33"/>
+      <c r="I50" s="33" t="s">
+        <v>151</v>
+      </c>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
       <c r="L50" s="42"/>
@@ -4692,23 +4712,23 @@
       <c r="AC50" s="68"/>
       <c r="AD50" s="68"/>
       <c r="AE50" s="68"/>
-      <c r="AF50" s="103"/>
-      <c r="AG50" s="103"/>
-      <c r="AH50" s="103"/>
+      <c r="AF50" s="118"/>
+      <c r="AG50" s="118"/>
+      <c r="AH50" s="118"/>
       <c r="AI50" s="106"/>
       <c r="AJ50" s="106"/>
       <c r="AK50" s="68"/>
       <c r="AL50" s="68"/>
     </row>
     <row r="51" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A51" s="99"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="38"/>
       <c r="C51" s="54"/>
       <c r="D51" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>74</v>
@@ -4717,7 +4737,9 @@
         <v>45404</v>
       </c>
       <c r="H51" s="89"/>
-      <c r="I51" s="39"/>
+      <c r="I51" s="39" t="s">
+        <v>152</v>
+      </c>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
       <c r="L51" s="42"/>
@@ -4740,9 +4762,9 @@
       <c r="AC51" s="68"/>
       <c r="AD51" s="68"/>
       <c r="AE51" s="68"/>
-      <c r="AF51" s="103"/>
-      <c r="AG51" s="103"/>
-      <c r="AH51" s="103"/>
+      <c r="AF51" s="118"/>
+      <c r="AG51" s="118"/>
+      <c r="AH51" s="118"/>
       <c r="AI51" s="106"/>
       <c r="AJ51" s="106"/>
       <c r="AK51" s="68"/>
@@ -4756,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>75</v>
@@ -4765,7 +4787,9 @@
         <v>45404</v>
       </c>
       <c r="H52" s="89"/>
-      <c r="I52" s="39"/>
+      <c r="I52" s="39" t="s">
+        <v>153</v>
+      </c>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
       <c r="L52" s="42"/>
@@ -4788,9 +4812,9 @@
       <c r="AC52" s="68"/>
       <c r="AD52" s="68"/>
       <c r="AE52" s="68"/>
-      <c r="AF52" s="103"/>
-      <c r="AG52" s="103"/>
-      <c r="AH52" s="103"/>
+      <c r="AF52" s="118"/>
+      <c r="AG52" s="118"/>
+      <c r="AH52" s="118"/>
       <c r="AI52" s="106"/>
       <c r="AJ52" s="106"/>
       <c r="AK52" s="68"/>
@@ -4801,10 +4825,10 @@
       <c r="B53" s="41"/>
       <c r="C53" s="54"/>
       <c r="D53" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>4</v>
@@ -4814,7 +4838,7 @@
       </c>
       <c r="H53" s="89"/>
       <c r="I53" s="46" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
@@ -4838,9 +4862,9 @@
       <c r="AC53" s="68"/>
       <c r="AD53" s="68"/>
       <c r="AE53" s="68"/>
-      <c r="AF53" s="106"/>
-      <c r="AG53" s="106"/>
-      <c r="AH53" s="106"/>
+      <c r="AF53" s="118"/>
+      <c r="AG53" s="118"/>
+      <c r="AH53" s="118"/>
       <c r="AI53" s="103"/>
       <c r="AJ53" s="103"/>
       <c r="AK53" s="103"/>
@@ -4849,17 +4873,17 @@
     <row r="54" spans="1:38" ht="16.5" customHeight="1">
       <c r="A54" s="44"/>
       <c r="B54" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="148" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="148"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="150"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="42"/>
@@ -4898,7 +4922,7 @@
         <v>44</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>4</v>
@@ -4908,7 +4932,7 @@
       </c>
       <c r="H55" s="89"/>
       <c r="I55" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J55" s="42"/>
       <c r="K55" s="42"/>
@@ -4948,7 +4972,7 @@
         <v>45</v>
       </c>
       <c r="E56" s="97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>72</v>
@@ -4996,7 +5020,7 @@
         <v>46</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F57" s="96" t="s">
         <v>73</v>
@@ -5044,7 +5068,7 @@
         <v>48</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>74</v>
@@ -5092,7 +5116,7 @@
         <v>49</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>75</v>

--- a/[02]_일지 WBS/[1조]푸드쉐어_프로젝트.xlsx
+++ b/[02]_일지 WBS/[1조]푸드쉐어_프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\water\OneDrive\바탕 화면\프로젝트 사다리\문서\[02]_일지 WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F8F38-3276-4F55-9EA3-4A701965B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193D19E2-D984-4B8F-B396-7B4B721F85CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2185,10 +2185,10 @@
   <dimension ref="A1:AL1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="9" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="9" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48:I48"/>
+      <selection pane="bottomRight" activeCell="AB51" sqref="AB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -4665,8 +4665,8 @@
       <c r="AF49" s="118"/>
       <c r="AG49" s="118"/>
       <c r="AH49" s="118"/>
-      <c r="AI49" s="106"/>
-      <c r="AJ49" s="106"/>
+      <c r="AI49" s="118"/>
+      <c r="AJ49" s="118"/>
       <c r="AK49" s="68"/>
       <c r="AL49" s="68"/>
     </row>
@@ -4715,8 +4715,8 @@
       <c r="AF50" s="118"/>
       <c r="AG50" s="118"/>
       <c r="AH50" s="118"/>
-      <c r="AI50" s="106"/>
-      <c r="AJ50" s="106"/>
+      <c r="AI50" s="118"/>
+      <c r="AJ50" s="118"/>
       <c r="AK50" s="68"/>
       <c r="AL50" s="68"/>
     </row>
@@ -4765,13 +4765,13 @@
       <c r="AF51" s="118"/>
       <c r="AG51" s="118"/>
       <c r="AH51" s="118"/>
-      <c r="AI51" s="106"/>
-      <c r="AJ51" s="106"/>
+      <c r="AI51" s="118"/>
+      <c r="AJ51" s="118"/>
       <c r="AK51" s="68"/>
       <c r="AL51" s="68"/>
     </row>
     <row r="52" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A52" s="99"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="38"/>
       <c r="C52" s="54"/>
       <c r="D52" s="51" t="s">
@@ -4815,13 +4815,13 @@
       <c r="AF52" s="118"/>
       <c r="AG52" s="118"/>
       <c r="AH52" s="118"/>
-      <c r="AI52" s="106"/>
-      <c r="AJ52" s="106"/>
+      <c r="AI52" s="118"/>
+      <c r="AJ52" s="118"/>
       <c r="AK52" s="68"/>
       <c r="AL52" s="68"/>
     </row>
     <row r="53" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A53" s="99"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="41"/>
       <c r="C53" s="54"/>
       <c r="D53" s="51" t="s">
@@ -4865,8 +4865,8 @@
       <c r="AF53" s="118"/>
       <c r="AG53" s="118"/>
       <c r="AH53" s="118"/>
-      <c r="AI53" s="103"/>
-      <c r="AJ53" s="103"/>
+      <c r="AI53" s="118"/>
+      <c r="AJ53" s="118"/>
       <c r="AK53" s="103"/>
       <c r="AL53" s="68"/>
     </row>

--- a/[02]_일지 WBS/[1조]푸드쉐어_프로젝트.xlsx
+++ b/[02]_일지 WBS/[1조]푸드쉐어_프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\water\OneDrive\바탕 화면\프로젝트 사다리\문서\[02]_일지 WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193D19E2-D984-4B8F-B396-7B4B721F85CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F49EE-7CF3-4A18-A80F-D6021B493F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
   <si>
     <t>Project</t>
   </si>
@@ -446,10 +446,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  4/29 ~ 5/2  5주차 발표준비</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 알림</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -606,6 +602,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 4/22 ~ 4/28  4주차 기능 통합 : 기능별 통합테스트 하면서 담당 부분 리팩토링 및 기능 개선 + @ (기능 추가) </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">통합테스트 및  발표준비 </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4/29 ~ 5/2  5주차 발표준비 : 통합 테스트 및 연동  PPT 테스트 </t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1389,21 +1393,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1448,6 +1437,19 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1759,16 +1761,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1798,10 +1794,10 @@
     <xf numFmtId="177" fontId="4" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1828,10 +1824,103 @@
     <xf numFmtId="14" fontId="4" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1839,9 +1928,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1876,94 +1962,10 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2185,10 +2187,10 @@
   <dimension ref="A1:AL1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="9" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="9" topLeftCell="M47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AB51" sqref="AB51"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -2210,12 +2212,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="3" t="s">
         <v>72</v>
       </c>
@@ -2260,12 +2262,12 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
       <c r="F2" s="96" t="s">
         <v>73</v>
       </c>
@@ -2310,12 +2312,12 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
       <c r="F3" s="6" t="s">
         <v>74</v>
       </c>
@@ -2360,12 +2362,12 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="8" t="s">
         <v>75</v>
       </c>
@@ -2408,12 +2410,12 @@
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="161">
         <v>45371</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="10" t="s">
         <v>76</v>
       </c>
@@ -2453,258 +2455,258 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="164" t="s">
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="163" t="s">
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="163"/>
-      <c r="AL6" s="163"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121"/>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1">
-      <c r="A7" s="131"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="164" t="s">
+      <c r="A7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="167" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="162" t="s">
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="162"/>
-      <c r="T7" s="162"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="162" t="s">
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162" t="s">
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="162"/>
-      <c r="AF7" s="162" t="s">
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="162"/>
-      <c r="AI7" s="162"/>
-      <c r="AJ7" s="162"/>
-      <c r="AK7" s="162" t="s">
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="AL7" s="162"/>
+      <c r="AL7" s="120"/>
     </row>
     <row r="8" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="138" t="s">
+      <c r="C8" s="137"/>
+      <c r="D8" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="159" t="s">
+      <c r="E8" s="137"/>
+      <c r="F8" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="160" t="s">
+      <c r="G8" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="154" t="s">
+      <c r="H8" s="142"/>
+      <c r="I8" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="155">
+      <c r="J8" s="129">
         <v>20</v>
       </c>
-      <c r="K8" s="135">
+      <c r="K8" s="163">
         <v>21</v>
       </c>
-      <c r="L8" s="135">
+      <c r="L8" s="163">
         <v>22</v>
       </c>
-      <c r="M8" s="124">
+      <c r="M8" s="153">
         <v>25</v>
       </c>
-      <c r="N8" s="124">
+      <c r="N8" s="153">
         <v>26</v>
       </c>
-      <c r="O8" s="124">
+      <c r="O8" s="153">
         <v>27</v>
       </c>
-      <c r="P8" s="124">
+      <c r="P8" s="153">
         <v>28</v>
       </c>
-      <c r="Q8" s="124">
+      <c r="Q8" s="153">
         <v>29</v>
       </c>
-      <c r="R8" s="122">
+      <c r="R8" s="126">
         <v>1</v>
       </c>
-      <c r="S8" s="122">
+      <c r="S8" s="126">
         <v>2</v>
       </c>
-      <c r="T8" s="122">
+      <c r="T8" s="126">
         <v>3</v>
       </c>
-      <c r="U8" s="122">
+      <c r="U8" s="126">
         <v>4</v>
       </c>
-      <c r="V8" s="122">
+      <c r="V8" s="126">
         <v>5</v>
       </c>
-      <c r="W8" s="122">
+      <c r="W8" s="126">
         <v>8</v>
       </c>
-      <c r="X8" s="122">
+      <c r="X8" s="126">
         <v>9</v>
       </c>
-      <c r="Y8" s="122">
+      <c r="Y8" s="126">
         <v>11</v>
       </c>
-      <c r="Z8" s="122">
+      <c r="Z8" s="126">
         <v>12</v>
       </c>
-      <c r="AA8" s="122">
+      <c r="AA8" s="126">
         <v>15</v>
       </c>
-      <c r="AB8" s="122">
+      <c r="AB8" s="126">
         <v>16</v>
       </c>
-      <c r="AC8" s="122">
+      <c r="AC8" s="126">
         <v>17</v>
       </c>
-      <c r="AD8" s="122">
+      <c r="AD8" s="126">
         <v>18</v>
       </c>
-      <c r="AE8" s="122">
+      <c r="AE8" s="126">
         <v>19</v>
       </c>
-      <c r="AF8" s="122">
+      <c r="AF8" s="126">
         <v>22</v>
       </c>
-      <c r="AG8" s="122">
+      <c r="AG8" s="126">
         <v>23</v>
       </c>
-      <c r="AH8" s="122">
+      <c r="AH8" s="126">
         <v>24</v>
       </c>
-      <c r="AI8" s="122">
+      <c r="AI8" s="126">
         <v>25</v>
       </c>
-      <c r="AJ8" s="122">
+      <c r="AJ8" s="126">
         <v>26</v>
       </c>
-      <c r="AK8" s="122">
+      <c r="AK8" s="126">
         <v>29</v>
       </c>
-      <c r="AL8" s="122">
+      <c r="AL8" s="126">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="123"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="127"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
     </row>
     <row r="10" spans="1:38" ht="16.5" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -2753,15 +2755,15 @@
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="143"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -2814,7 +2816,7 @@
       <c r="I12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="105"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -2901,15 +2903,15 @@
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="143"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -2953,18 +2955,18 @@
       <c r="F15" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="143"/>
+      <c r="H15" s="133"/>
       <c r="I15" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -3037,15 +3039,15 @@
       <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="143"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -3077,7 +3079,7 @@
       <c r="AL17" s="67"/>
     </row>
     <row r="18" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A18" s="116"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="19"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
@@ -3098,7 +3100,7 @@
       <c r="I18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="105"/>
+      <c r="J18" s="103"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -3129,7 +3131,7 @@
       <c r="AL18" s="68"/>
     </row>
     <row r="19" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A19" s="116"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="19"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
@@ -3151,7 +3153,7 @@
         <v>84</v>
       </c>
       <c r="J19" s="25"/>
-      <c r="K19" s="105"/>
+      <c r="K19" s="103"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
@@ -3181,7 +3183,7 @@
       <c r="AL19" s="68"/>
     </row>
     <row r="20" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A20" s="116"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="19"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
@@ -3203,7 +3205,7 @@
         <v>88</v>
       </c>
       <c r="J20" s="25"/>
-      <c r="K20" s="105"/>
+      <c r="K20" s="103"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
@@ -3233,7 +3235,7 @@
       <c r="AL20" s="68"/>
     </row>
     <row r="21" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A21" s="116"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="19"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
@@ -3255,7 +3257,7 @@
         <v>96</v>
       </c>
       <c r="J21" s="25"/>
-      <c r="K21" s="105"/>
+      <c r="K21" s="103"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -3285,7 +3287,7 @@
       <c r="AL21" s="68"/>
     </row>
     <row r="22" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A22" s="116"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="19"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
@@ -3308,7 +3310,7 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="105"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -3337,19 +3339,19 @@
       <c r="AL22" s="68"/>
     </row>
     <row r="23" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A23" s="117"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="143"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -3381,7 +3383,7 @@
       <c r="AL23" s="67"/>
     </row>
     <row r="24" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A24" s="116"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="19"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
@@ -3405,7 +3407,7 @@
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="105"/>
+      <c r="M24" s="103"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
@@ -3433,7 +3435,7 @@
       <c r="AL24" s="68"/>
     </row>
     <row r="25" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A25" s="116"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="19"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21" t="s">
@@ -3457,7 +3459,7 @@
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
-      <c r="M25" s="105"/>
+      <c r="M25" s="103"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
@@ -3485,7 +3487,7 @@
       <c r="AL25" s="68"/>
     </row>
     <row r="26" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A26" s="116"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="19"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
@@ -3509,7 +3511,7 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="105"/>
+      <c r="M26" s="103"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
@@ -3537,7 +3539,7 @@
       <c r="AL26" s="68"/>
     </row>
     <row r="27" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A27" s="116"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="19"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
@@ -3560,7 +3562,7 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
-      <c r="N27" s="105"/>
+      <c r="N27" s="103"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
@@ -3590,14 +3592,14 @@
       <c r="A28" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="143"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
@@ -3633,47 +3635,47 @@
       <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="152" t="s">
+      <c r="C29" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
-      <c r="AI29" s="111"/>
-      <c r="AJ29" s="111"/>
-      <c r="AK29" s="111"/>
-      <c r="AL29" s="111"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="109"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="109"/>
+      <c r="AH29" s="109"/>
+      <c r="AI29" s="109"/>
+      <c r="AJ29" s="109"/>
+      <c r="AK29" s="109"/>
+      <c r="AL29" s="109"/>
     </row>
     <row r="30" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A30" s="116"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="19"/>
       <c r="C30" s="54"/>
       <c r="D30" s="51" t="s">
@@ -3701,11 +3703,11 @@
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="60"/>
-      <c r="S30" s="105"/>
-      <c r="T30" s="105"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="104"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="102"/>
       <c r="X30" s="67"/>
       <c r="Y30" s="67"/>
       <c r="Z30" s="67"/>
@@ -3723,7 +3725,7 @@
       <c r="AL30" s="67"/>
     </row>
     <row r="31" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A31" s="116"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="19"/>
       <c r="C31" s="54"/>
       <c r="D31" s="51" t="s">
@@ -3751,10 +3753,10 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="61"/>
-      <c r="S31" s="105"/>
-      <c r="T31" s="105"/>
-      <c r="U31" s="105"/>
-      <c r="V31" s="105"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
       <c r="W31" s="62"/>
       <c r="X31" s="68"/>
       <c r="Y31" s="68"/>
@@ -3773,7 +3775,7 @@
       <c r="AL31" s="68"/>
     </row>
     <row r="32" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A32" s="116"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="19"/>
       <c r="C32" s="54"/>
       <c r="D32" s="51" t="s">
@@ -3803,10 +3805,10 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="61"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="105"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
       <c r="W32" s="62"/>
       <c r="X32" s="68"/>
       <c r="Y32" s="68"/>
@@ -3825,7 +3827,7 @@
       <c r="AL32" s="68"/>
     </row>
     <row r="33" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A33" s="116"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="19"/>
       <c r="C33" s="54"/>
       <c r="D33" s="51" t="s">
@@ -3855,10 +3857,10 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="61"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="105"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
       <c r="W33" s="62"/>
       <c r="X33" s="68"/>
       <c r="Y33" s="68"/>
@@ -3877,7 +3879,7 @@
       <c r="AL33" s="68"/>
     </row>
     <row r="34" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A34" s="116"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="19"/>
       <c r="C34" s="54"/>
       <c r="D34" s="51" t="s">
@@ -3905,10 +3907,10 @@
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="61"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
       <c r="W34" s="62"/>
       <c r="X34" s="68"/>
       <c r="Y34" s="68"/>
@@ -3927,19 +3929,19 @@
       <c r="AL34" s="68"/>
     </row>
     <row r="35" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A35" s="117"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="153" t="s">
-        <v>143</v>
+      <c r="C35" s="152" t="s">
+        <v>142</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="143"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="133"/>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
@@ -3954,9 +3956,9 @@
       <c r="U35" s="39"/>
       <c r="V35" s="39"/>
       <c r="W35" s="98"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
       <c r="AA35" s="68"/>
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
@@ -3971,14 +3973,14 @@
       <c r="AL35" s="68"/>
     </row>
     <row r="36" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A36" s="120"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="19"/>
       <c r="C36" s="54"/>
       <c r="D36" s="51" t="s">
         <v>42</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>72</v>
@@ -3990,7 +3992,7 @@
         <v>45394</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -4005,10 +4007,10 @@
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
       <c r="V36" s="62"/>
-      <c r="W36" s="119"/>
-      <c r="X36" s="119"/>
-      <c r="Y36" s="119"/>
-      <c r="Z36" s="106"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="104"/>
       <c r="AA36" s="68"/>
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
@@ -4023,14 +4025,14 @@
       <c r="AL36" s="68"/>
     </row>
     <row r="37" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A37" s="120"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="19"/>
       <c r="C37" s="54"/>
       <c r="D37" s="51" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="96" t="s">
         <v>73</v>
@@ -4042,7 +4044,7 @@
         <v>45394</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
@@ -4057,10 +4059,10 @@
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
       <c r="V37" s="62"/>
-      <c r="W37" s="118"/>
-      <c r="X37" s="118"/>
-      <c r="Y37" s="118"/>
-      <c r="Z37" s="106"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="104"/>
       <c r="AA37" s="68"/>
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
@@ -4075,14 +4077,14 @@
       <c r="AL37" s="68"/>
     </row>
     <row r="38" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A38" s="120"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="19"/>
       <c r="C38" s="54"/>
       <c r="D38" s="51" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>74</v>
@@ -4094,7 +4096,7 @@
         <v>45394</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
@@ -4109,10 +4111,10 @@
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
       <c r="V38" s="62"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="118"/>
-      <c r="Y38" s="118"/>
-      <c r="Z38" s="106"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="116"/>
+      <c r="Y38" s="116"/>
+      <c r="Z38" s="104"/>
       <c r="AA38" s="68"/>
       <c r="AB38" s="68"/>
       <c r="AC38" s="68"/>
@@ -4127,14 +4129,14 @@
       <c r="AL38" s="68"/>
     </row>
     <row r="39" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A39" s="120"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="19"/>
       <c r="C39" s="54"/>
       <c r="D39" s="51" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>75</v>
@@ -4146,7 +4148,7 @@
         <v>45394</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
@@ -4161,10 +4163,10 @@
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
       <c r="V39" s="62"/>
-      <c r="W39" s="118"/>
-      <c r="X39" s="118"/>
-      <c r="Y39" s="118"/>
-      <c r="Z39" s="106"/>
+      <c r="W39" s="116"/>
+      <c r="X39" s="116"/>
+      <c r="Y39" s="116"/>
+      <c r="Z39" s="104"/>
       <c r="AA39" s="68"/>
       <c r="AB39" s="68"/>
       <c r="AC39" s="68"/>
@@ -4179,14 +4181,14 @@
       <c r="AL39" s="68"/>
     </row>
     <row r="40" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A40" s="120"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="19"/>
       <c r="C40" s="54"/>
       <c r="D40" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>4</v>
@@ -4198,7 +4200,7 @@
         <v>45394</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -4213,11 +4215,11 @@
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
       <c r="V40" s="62"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="118"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="116"/>
+      <c r="AA40" s="116"/>
       <c r="AB40" s="68"/>
       <c r="AC40" s="68"/>
       <c r="AD40" s="68"/>
@@ -4236,7 +4238,7 @@
         <v>107</v>
       </c>
       <c r="C41" s="144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="145"/>
       <c r="E41" s="145"/>
@@ -4258,9 +4260,9 @@
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
       <c r="W41" s="63"/>
-      <c r="X41" s="102"/>
-      <c r="Y41" s="102"/>
-      <c r="Z41" s="102"/>
+      <c r="X41" s="100"/>
+      <c r="Y41" s="100"/>
+      <c r="Z41" s="100"/>
       <c r="AA41" s="70"/>
       <c r="AB41" s="70"/>
       <c r="AC41" s="70"/>
@@ -4275,14 +4277,14 @@
       <c r="AL41" s="70"/>
     </row>
     <row r="42" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A42" s="121"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="41"/>
       <c r="C42" s="55"/>
       <c r="D42" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>72</v>
@@ -4294,7 +4296,7 @@
         <v>45401</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
@@ -4313,11 +4315,11 @@
       <c r="X42" s="68"/>
       <c r="Y42" s="68"/>
       <c r="Z42" s="68"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="106"/>
+      <c r="AA42" s="116"/>
+      <c r="AB42" s="116"/>
+      <c r="AC42" s="116"/>
+      <c r="AD42" s="116"/>
+      <c r="AE42" s="104"/>
       <c r="AF42" s="68"/>
       <c r="AG42" s="68"/>
       <c r="AH42" s="68"/>
@@ -4327,14 +4329,14 @@
       <c r="AL42" s="68"/>
     </row>
     <row r="43" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A43" s="121"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="31"/>
       <c r="C43" s="54"/>
       <c r="D43" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="96" t="s">
         <v>73</v>
@@ -4346,7 +4348,7 @@
         <v>45401</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J43" s="42"/>
       <c r="K43" s="42"/>
@@ -4365,11 +4367,11 @@
       <c r="X43" s="68"/>
       <c r="Y43" s="68"/>
       <c r="Z43" s="68"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="106"/>
+      <c r="AA43" s="116"/>
+      <c r="AB43" s="116"/>
+      <c r="AC43" s="116"/>
+      <c r="AD43" s="116"/>
+      <c r="AE43" s="104"/>
       <c r="AF43" s="68"/>
       <c r="AG43" s="68"/>
       <c r="AH43" s="68"/>
@@ -4379,14 +4381,14 @@
       <c r="AL43" s="68"/>
     </row>
     <row r="44" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A44" s="121"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="38"/>
       <c r="C44" s="56"/>
       <c r="D44" s="58" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>74</v>
@@ -4398,7 +4400,7 @@
         <v>45401</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="42"/>
@@ -4417,11 +4419,11 @@
       <c r="X44" s="68"/>
       <c r="Y44" s="68"/>
       <c r="Z44" s="68"/>
-      <c r="AA44" s="118"/>
-      <c r="AB44" s="118"/>
-      <c r="AC44" s="118"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="106"/>
+      <c r="AA44" s="116"/>
+      <c r="AB44" s="116"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="116"/>
+      <c r="AE44" s="104"/>
       <c r="AF44" s="68"/>
       <c r="AG44" s="68"/>
       <c r="AH44" s="68"/>
@@ -4431,14 +4433,14 @@
       <c r="AL44" s="68"/>
     </row>
     <row r="45" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="38"/>
       <c r="C45" s="56"/>
       <c r="D45" s="58" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>75</v>
@@ -4450,7 +4452,7 @@
         <v>45401</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J45" s="42"/>
       <c r="K45" s="42"/>
@@ -4469,11 +4471,11 @@
       <c r="X45" s="68"/>
       <c r="Y45" s="68"/>
       <c r="Z45" s="68"/>
-      <c r="AA45" s="118"/>
-      <c r="AB45" s="118"/>
-      <c r="AC45" s="118"/>
-      <c r="AD45" s="118"/>
-      <c r="AE45" s="106"/>
+      <c r="AA45" s="116"/>
+      <c r="AB45" s="116"/>
+      <c r="AC45" s="116"/>
+      <c r="AD45" s="116"/>
+      <c r="AE45" s="104"/>
       <c r="AF45" s="68"/>
       <c r="AG45" s="68"/>
       <c r="AH45" s="68"/>
@@ -4483,14 +4485,14 @@
       <c r="AL45" s="68"/>
     </row>
     <row r="46" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A46" s="121"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="38"/>
       <c r="C46" s="54"/>
       <c r="D46" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>4</v>
@@ -4502,7 +4504,7 @@
         <v>45401</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
@@ -4521,13 +4523,13 @@
       <c r="X46" s="71"/>
       <c r="Y46" s="71"/>
       <c r="Z46" s="71"/>
-      <c r="AA46" s="106"/>
-      <c r="AB46" s="106"/>
-      <c r="AC46" s="106"/>
-      <c r="AD46" s="106"/>
-      <c r="AE46" s="118"/>
-      <c r="AF46" s="118"/>
-      <c r="AG46" s="118"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
       <c r="AH46" s="71"/>
       <c r="AI46" s="71"/>
       <c r="AJ46" s="71"/>
@@ -4535,13 +4537,13 @@
       <c r="AL46" s="71"/>
     </row>
     <row r="47" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A47" s="142" t="s">
+      <c r="A47" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="143"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="34"/>
       <c r="G47" s="79"/>
       <c r="H47" s="91"/>
@@ -4553,13 +4555,13 @@
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="115"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="112"/>
+      <c r="T47" s="112"/>
+      <c r="U47" s="112"/>
+      <c r="V47" s="112"/>
+      <c r="W47" s="113"/>
       <c r="X47" s="69"/>
       <c r="Y47" s="69"/>
       <c r="Z47" s="69"/>
@@ -4582,14 +4584,14 @@
         <v>113</v>
       </c>
       <c r="C48" s="147" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="148"/>
       <c r="E48" s="148"/>
       <c r="F48" s="148"/>
       <c r="G48" s="148"/>
       <c r="H48" s="148"/>
-      <c r="I48" s="141"/>
+      <c r="I48" s="139"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
       <c r="L48" s="42"/>
@@ -4621,14 +4623,14 @@
       <c r="AL48" s="68"/>
     </row>
     <row r="49" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="41"/>
       <c r="C49" s="54"/>
       <c r="D49" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>72</v>
@@ -4638,7 +4640,7 @@
       </c>
       <c r="H49" s="89"/>
       <c r="I49" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J49" s="42"/>
       <c r="K49" s="42"/>
@@ -4662,23 +4664,23 @@
       <c r="AC49" s="68"/>
       <c r="AD49" s="68"/>
       <c r="AE49" s="68"/>
-      <c r="AF49" s="118"/>
-      <c r="AG49" s="118"/>
-      <c r="AH49" s="118"/>
-      <c r="AI49" s="118"/>
-      <c r="AJ49" s="118"/>
-      <c r="AK49" s="68"/>
+      <c r="AF49" s="116"/>
+      <c r="AG49" s="116"/>
+      <c r="AH49" s="116"/>
+      <c r="AI49" s="116"/>
+      <c r="AJ49" s="116"/>
+      <c r="AK49" s="116"/>
       <c r="AL49" s="68"/>
     </row>
     <row r="50" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A50" s="121"/>
+      <c r="A50" s="119"/>
       <c r="B50" s="31"/>
       <c r="C50" s="54"/>
       <c r="D50" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" s="96" t="s">
         <v>73</v>
@@ -4688,7 +4690,7 @@
       </c>
       <c r="H50" s="89"/>
       <c r="I50" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
@@ -4712,23 +4714,23 @@
       <c r="AC50" s="68"/>
       <c r="AD50" s="68"/>
       <c r="AE50" s="68"/>
-      <c r="AF50" s="118"/>
-      <c r="AG50" s="118"/>
-      <c r="AH50" s="118"/>
-      <c r="AI50" s="118"/>
-      <c r="AJ50" s="118"/>
-      <c r="AK50" s="68"/>
+      <c r="AF50" s="116"/>
+      <c r="AG50" s="116"/>
+      <c r="AH50" s="116"/>
+      <c r="AI50" s="116"/>
+      <c r="AJ50" s="116"/>
+      <c r="AK50" s="116"/>
       <c r="AL50" s="68"/>
     </row>
     <row r="51" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A51" s="121"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="38"/>
       <c r="C51" s="54"/>
       <c r="D51" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>74</v>
@@ -4738,7 +4740,7 @@
       </c>
       <c r="H51" s="89"/>
       <c r="I51" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
@@ -4762,23 +4764,23 @@
       <c r="AC51" s="68"/>
       <c r="AD51" s="68"/>
       <c r="AE51" s="68"/>
-      <c r="AF51" s="118"/>
-      <c r="AG51" s="118"/>
-      <c r="AH51" s="118"/>
-      <c r="AI51" s="118"/>
-      <c r="AJ51" s="118"/>
-      <c r="AK51" s="68"/>
+      <c r="AF51" s="116"/>
+      <c r="AG51" s="116"/>
+      <c r="AH51" s="116"/>
+      <c r="AI51" s="116"/>
+      <c r="AJ51" s="116"/>
+      <c r="AK51" s="116"/>
       <c r="AL51" s="68"/>
     </row>
     <row r="52" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A52" s="121"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="38"/>
       <c r="C52" s="54"/>
       <c r="D52" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>75</v>
@@ -4788,7 +4790,7 @@
       </c>
       <c r="H52" s="89"/>
       <c r="I52" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
@@ -4812,23 +4814,23 @@
       <c r="AC52" s="68"/>
       <c r="AD52" s="68"/>
       <c r="AE52" s="68"/>
-      <c r="AF52" s="118"/>
-      <c r="AG52" s="118"/>
-      <c r="AH52" s="118"/>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
-      <c r="AK52" s="68"/>
+      <c r="AF52" s="116"/>
+      <c r="AG52" s="116"/>
+      <c r="AH52" s="116"/>
+      <c r="AI52" s="116"/>
+      <c r="AJ52" s="116"/>
+      <c r="AK52" s="116"/>
       <c r="AL52" s="68"/>
     </row>
     <row r="53" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A53" s="121"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="41"/>
       <c r="C53" s="54"/>
       <c r="D53" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>4</v>
@@ -4838,7 +4840,7 @@
       </c>
       <c r="H53" s="89"/>
       <c r="I53" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
@@ -4862,12 +4864,12 @@
       <c r="AC53" s="68"/>
       <c r="AD53" s="68"/>
       <c r="AE53" s="68"/>
-      <c r="AF53" s="118"/>
-      <c r="AG53" s="118"/>
-      <c r="AH53" s="118"/>
-      <c r="AI53" s="118"/>
-      <c r="AJ53" s="118"/>
-      <c r="AK53" s="103"/>
+      <c r="AF53" s="116"/>
+      <c r="AG53" s="116"/>
+      <c r="AH53" s="116"/>
+      <c r="AI53" s="116"/>
+      <c r="AJ53" s="116"/>
+      <c r="AK53" s="116"/>
       <c r="AL53" s="68"/>
     </row>
     <row r="54" spans="1:38" ht="16.5" customHeight="1">
@@ -4876,7 +4878,7 @@
         <v>114</v>
       </c>
       <c r="C54" s="149" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="D54" s="149"/>
       <c r="E54" s="149"/>
@@ -4915,14 +4917,14 @@
       <c r="AL54" s="68"/>
     </row>
     <row r="55" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A55" s="99"/>
+      <c r="A55" s="167"/>
       <c r="B55" s="40"/>
       <c r="C55" s="55"/>
       <c r="D55" s="51" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>4</v>
@@ -4932,7 +4934,7 @@
       </c>
       <c r="H55" s="89"/>
       <c r="I55" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J55" s="42"/>
       <c r="K55" s="42"/>
@@ -4961,18 +4963,18 @@
       <c r="AH55" s="68"/>
       <c r="AI55" s="68"/>
       <c r="AJ55" s="68"/>
-      <c r="AK55" s="103"/>
-      <c r="AL55" s="103"/>
+      <c r="AK55" s="101"/>
+      <c r="AL55" s="101"/>
     </row>
     <row r="56" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A56" s="99"/>
+      <c r="A56" s="167"/>
       <c r="B56" s="40"/>
       <c r="C56" s="54"/>
       <c r="D56" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>72</v>
@@ -4981,7 +4983,9 @@
         <v>45411</v>
       </c>
       <c r="H56" s="89"/>
-      <c r="I56" s="48"/>
+      <c r="I56" s="48" t="s">
+        <v>155</v>
+      </c>
       <c r="J56" s="42"/>
       <c r="K56" s="42"/>
       <c r="L56" s="42"/>
@@ -5009,18 +5013,18 @@
       <c r="AH56" s="68"/>
       <c r="AI56" s="68"/>
       <c r="AJ56" s="68"/>
-      <c r="AK56" s="103"/>
-      <c r="AL56" s="103"/>
+      <c r="AK56" s="101"/>
+      <c r="AL56" s="101"/>
     </row>
     <row r="57" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A57" s="99"/>
+      <c r="A57" s="167"/>
       <c r="B57" s="40"/>
       <c r="C57" s="54"/>
       <c r="D57" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F57" s="96" t="s">
         <v>73</v>
@@ -5029,7 +5033,9 @@
         <v>45411</v>
       </c>
       <c r="H57" s="89"/>
-      <c r="I57" s="48"/>
+      <c r="I57" s="48" t="s">
+        <v>155</v>
+      </c>
       <c r="J57" s="42"/>
       <c r="K57" s="42"/>
       <c r="L57" s="42"/>
@@ -5057,18 +5063,18 @@
       <c r="AH57" s="68"/>
       <c r="AI57" s="68"/>
       <c r="AJ57" s="68"/>
-      <c r="AK57" s="103"/>
-      <c r="AL57" s="103"/>
+      <c r="AK57" s="101"/>
+      <c r="AL57" s="101"/>
     </row>
     <row r="58" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A58" s="99"/>
+      <c r="A58" s="167"/>
       <c r="B58" s="40"/>
       <c r="C58" s="57"/>
       <c r="D58" s="53" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>74</v>
@@ -5077,7 +5083,9 @@
         <v>45411</v>
       </c>
       <c r="H58" s="89"/>
-      <c r="I58" s="48"/>
+      <c r="I58" s="48" t="s">
+        <v>155</v>
+      </c>
       <c r="J58" s="42"/>
       <c r="K58" s="42"/>
       <c r="L58" s="42"/>
@@ -5105,18 +5113,18 @@
       <c r="AH58" s="68"/>
       <c r="AI58" s="68"/>
       <c r="AJ58" s="68"/>
-      <c r="AK58" s="103"/>
-      <c r="AL58" s="103"/>
+      <c r="AK58" s="101"/>
+      <c r="AL58" s="101"/>
     </row>
     <row r="59" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A59" s="99"/>
-      <c r="B59" s="100"/>
+      <c r="A59" s="167"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="57"/>
       <c r="D59" s="52" t="s">
         <v>49</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>75</v>
@@ -5125,7 +5133,9 @@
         <v>45411</v>
       </c>
       <c r="H59" s="89"/>
-      <c r="I59" s="48"/>
+      <c r="I59" s="48" t="s">
+        <v>155</v>
+      </c>
       <c r="J59" s="42"/>
       <c r="K59" s="42"/>
       <c r="L59" s="42"/>
@@ -5133,13 +5143,13 @@
       <c r="N59" s="42"/>
       <c r="O59" s="42"/>
       <c r="P59" s="42"/>
-      <c r="Q59" s="112"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="112"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="112"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="113"/>
+      <c r="Q59" s="110"/>
+      <c r="R59" s="110"/>
+      <c r="S59" s="110"/>
+      <c r="T59" s="110"/>
+      <c r="U59" s="110"/>
+      <c r="V59" s="110"/>
+      <c r="W59" s="111"/>
       <c r="X59" s="68"/>
       <c r="Y59" s="68"/>
       <c r="Z59" s="68"/>
@@ -5153,8 +5163,8 @@
       <c r="AH59" s="68"/>
       <c r="AI59" s="68"/>
       <c r="AJ59" s="68"/>
-      <c r="AK59" s="103"/>
-      <c r="AL59" s="103"/>
+      <c r="AK59" s="101"/>
+      <c r="AL59" s="101"/>
     </row>
     <row r="60" spans="1:38" ht="16.5" customHeight="1">
       <c r="A60" s="50"/>
@@ -43391,47 +43401,11 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AA7:AE7"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="R6:AL6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="B1:E1"/>
@@ -43448,11 +43422,47 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="R6:AL6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
